--- a/data/trans_bre/P24_8_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>14,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,82</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>159,45%</t>
+          <t>443,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>462,34%</t>
+          <t>275,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1088,35%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,32 +694,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 19,32</t>
+          <t>2,75; 27,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 16,67</t>
+          <t>-2,94; 21,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 16,61</t>
+          <t>2,31; 18,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 24,85</t>
+          <t>5,96; 27,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 540,12</t>
+          <t>4,55; 23,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 1100,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>119,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>109,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>197,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>109,3%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 13,66</t>
+          <t>-30,89; 21,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 18,47</t>
+          <t>-4,35; 23,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 15,29</t>
+          <t>-3,35; 21,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 13,79</t>
+          <t>-0,61; 22,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,47; 301,88</t>
+          <t>-4,74; 18,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 637,81</t>
+          <t>-73,16; 491,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 565,43</t>
+          <t>-52,83; 905,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 640,84</t>
+          <t>-37,98; 905,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-32,65; 1522,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-54,33; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>410,06%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
+          <t>541,01%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50,75%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 10,61</t>
+          <t>-3,81; 15,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 10,41</t>
+          <t>-9,04; 11,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 15,85</t>
+          <t>2,67; 17,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 11,81</t>
+          <t>-6,14; 13,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,98; 204,4</t>
+          <t>-4,37; 13,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 276,92</t>
+          <t>-35,26; 670,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,81; 1722,16</t>
+          <t>-58,35; 275,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 364,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-51,3; 606,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-51,76; 639,94</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>188,34%</t>
+          <t>388,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>131,42%</t>
+          <t>543,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>229,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>201,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>553,93%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 10,16</t>
+          <t>3,22; 17,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 12,21</t>
+          <t>6,06; 21,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 14,05</t>
+          <t>3,14; 19,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 11,04</t>
+          <t>3,23; 20,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 297,02</t>
+          <t>6,82; 24,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 1082,18</t>
+          <t>20,52; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 432,98</t>
+          <t>30,68; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 350,05</t>
+          <t>24,49; 1203,17</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 1141,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60,47; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>174,57%</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>195,46%</t>
+          <t>231,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>165,46%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>66,84%</t>
+          <t>219,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 15,06</t>
+          <t>-0,47; 16,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 11,07</t>
+          <t>-4,24; 8,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 14,75</t>
+          <t>-1,46; 16,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 11,79</t>
+          <t>-17,92; 12,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 881,44</t>
+          <t>-9,35; 13,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 1367,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 1042,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-67,58; 634,72</t>
+          <t>-69,05; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-88,2; 586,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-76,65; 348,22</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>12,22</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>640,87%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>108,6%</t>
+          <t>173,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>76,2%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77,06%</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1294,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,79</t>
+          <t>0,0; 11,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 15,94</t>
+          <t>-4,29; 15,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 16,88</t>
+          <t>-5,59; 8,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,83; 15,97</t>
+          <t>4,48; 26,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,06; —</t>
+          <t>-8,14; 22,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,12 +1324,22 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,5; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-70,3; 869,54</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>140,74%</t>
+          <t>112,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>179,18%</t>
+          <t>150,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>149,38%</t>
+          <t>221,44%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>164,7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>153,18%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,84</t>
+          <t>-0,46; 12,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,24</t>
+          <t>3,39; 10,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,39</t>
+          <t>4,19; 12,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,0</t>
+          <t>3,95; 12,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 136,7</t>
+          <t>3,87; 13,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,24; 299,82</t>
+          <t>-11,56; 362,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,4; 364,16</t>
+          <t>49,31; 372,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>53,27; 313,26</t>
+          <t>70,35; 588,17</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42,79; 389,52</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>46,01; 376,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
